--- a/sampleR.xlsx
+++ b/sampleR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p4lawren/Desktop/coding/research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C5C63-E02F-6A47-8643-EE53D33A4834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EDE87E-BF51-AF49-8EAA-1C8514D84143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="5880" windowWidth="28040" windowHeight="17440" xr2:uid="{57C0059A-3D3E-2440-9BA3-03937EADE4BD}"/>
+    <workbookView xWindow="18440" yWindow="4420" windowWidth="28040" windowHeight="17440" xr2:uid="{57C0059A-3D3E-2440-9BA3-03937EADE4BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
